--- a/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.107761866092139</v>
+        <v>-2.419823413212175</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.147437742974615</v>
+        <v>-2.153816263998834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.459015278482712</v>
+        <v>-3.568698928280761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.21106247107896</v>
+        <v>-2.369288538040775</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.050436614230417</v>
+        <v>-3.601150852812624</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.148628848553614</v>
+        <v>-3.199946842785407</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.651036467904254</v>
+        <v>-1.602394800214846</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.09445970274029</v>
+        <v>-2.090309192387273</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.533378717427782</v>
+        <v>-2.492429138690241</v>
       </c>
     </row>
     <row r="6">
@@ -710,16 +710,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.211750313689933</v>
+        <v>1.268942168469176</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.515461090480656</v>
+        <v>1.27272040235093</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.256210929014605</v>
+        <v>1.160949003977965</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.904680953575575</v>
+        <v>0.8336970787456581</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3183398946792638</v>
+        <v>0.2808572903180351</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.2715465193458232</v>
+        <v>-0.2490530786015154</v>
       </c>
     </row>
     <row r="7">
@@ -785,10 +785,10 @@
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
-      <c r="J8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8944853126431348</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" s="6" t="inlineStr"/>
-      <c r="J9" s="6" t="n">
-        <v>2.790196258157439</v>
-      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.178851368642114</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1641436519503436</v>
+        <v>0.1641436519503435</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2367301107959517</v>
@@ -846,7 +846,7 @@
         <v>0.152252867469328</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.08313392059871173</v>
+        <v>0.08313392059871175</v>
       </c>
     </row>
     <row r="11">
@@ -887,24 +887,24 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>1.584075050022336</v>
+        <v>1.746528064334668</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>1.618188440250938</v>
+        <v>1.422813634399699</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.8117184640780922</v>
+        <v>0.8308974764740393</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8232073162164766</v>
+        <v>0.8296754142426221</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9180407265447542</v>
+        <v>0.7062479558984586</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4156050404005251</v>
+        <v>0.4308058036858219</v>
       </c>
     </row>
     <row r="13">
@@ -1029,29 +1029,29 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3395636856694968</v>
+        <v>0.3446715040357386</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>-0.8010205265608127</v>
+        <v>-0.7147607824618022</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8095314529057713</v>
+        <v>-1.189118200888982</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.934690780976814</v>
+        <v>-2.151325812730463</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08446774239063716</v>
+        <v>0.0776507227037936</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3869308598555244</v>
+        <v>-0.3055269119909303</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.878918816320482</v>
+        <v>-1.090967331403579</v>
       </c>
     </row>
     <row r="18">
@@ -1062,29 +1062,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.003999572816976</v>
+        <v>3.447325912320013</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.579917488222599</v>
+        <v>1.597275184059544</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>1.765982196681457</v>
+        <v>1.764672076666666</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.561171159289833</v>
+        <v>1.575500211271893</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3340610371210024</v>
+        <v>0.3320679778236547</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.916801118835799</v>
+        <v>1.869784530292606</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.194057067711151</v>
+        <v>1.224253919260908</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1769832594977595</v>
+        <v>0.1752794179296845</v>
       </c>
     </row>
     <row r="19">
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4401573580356279</v>
+        <v>-0.3611788376786857</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.875308722726747</v>
+        <v>-2.116240588316186</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.798285829634519</v>
+        <v>-2.11582145974958</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1219,13 +1219,13 @@
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>-0.1668097851130827</v>
+        <v>-0.1689122501257398</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.091930062548488</v>
+        <v>-0.8400125164291955</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8379789162127038</v>
+        <v>-0.9389903392423373</v>
       </c>
     </row>
     <row r="24">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.335459033753548</v>
+        <v>3.37729376867856</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
@@ -1245,12 +1245,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.648358160603288</v>
+        <v>1.521275239687934</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>1.86291435269408</v>
+        <v>1.668882707010748</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>-1.059717070636513</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.2476643329913439</v>
+        <v>-0.2476643329913441</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.8071286829494193</v>
@@ -1362,7 +1362,7 @@
         <v>-0.8071286829494193</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.1121679405369226</v>
+        <v>-0.1121679405369228</v>
       </c>
     </row>
     <row r="29">
@@ -1373,31 +1373,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.84179283839926</v>
+        <v>-2.803691088487279</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.793307736056373</v>
+        <v>-2.985741116906093</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.649221954789808</v>
+        <v>-1.661107289667575</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.785490543815456</v>
+        <v>-3.363079713171942</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.429119664068671</v>
+        <v>-3.216612549934791</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.741652295573317</v>
+        <v>-2.769878862371856</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.1467527173273</v>
+        <v>-2.15101957740877</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.375338911055197</v>
+        <v>-2.138288864748767</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.416870563555133</v>
+        <v>-1.422542257117338</v>
       </c>
     </row>
     <row r="30">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.088899147293083</v>
+        <v>1.08901611764605</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9941638614702405</v>
+        <v>1.02967921422378</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.2626639738791593</v>
+        <v>-0.2627773883006745</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2647435747371296</v>
+        <v>-0.2624917457701971</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7710736118228732</v>
+        <v>0.7706528215193086</v>
       </c>
     </row>
     <row r="31">
@@ -1458,7 +1458,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2337079772080917</v>
+        <v>-0.2337079772080919</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-1</v>
@@ -1467,7 +1467,7 @@
         <v>-1</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1389715703412215</v>
+        <v>-0.1389715703412217</v>
       </c>
     </row>
     <row r="32">
@@ -1486,7 +1486,7 @@
       <c r="I32" s="6" t="inlineStr"/>
       <c r="J32" s="6" t="inlineStr"/>
       <c r="K32" s="6" t="n">
-        <v>-0.841778931001526</v>
+        <v>-0.8331688338547462</v>
       </c>
     </row>
     <row r="33">
@@ -1533,7 +1533,7 @@
         <v>-0.5805498134809055</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.3275017320694764</v>
+        <v>-0.3275017320694763</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.058271567334012</v>
@@ -1560,22 +1560,22 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3374629442620128</v>
+        <v>-0.4335830139606593</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.892519313107936</v>
+        <v>-2.906227439199158</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.322559576532442</v>
+        <v>-2.343949069391237</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.1022024307271692</v>
+        <v>0.1012971486823486</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.508529458614374</v>
+        <v>-1.507486442912015</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.8292331848220525</v>
+        <v>-0.9029720774188624</v>
       </c>
     </row>
     <row r="36">
@@ -1586,29 +1586,29 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.890153504640748</v>
+        <v>1.892191065011226</v>
       </c>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>2.380517766212534</v>
+        <v>2.728826895993077</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.506588282640549</v>
+        <v>4.273587444442505</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.4978583432607019</v>
+        <v>0.5049002404719252</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.502173020097872</v>
+        <v>2.621030067711086</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.7901688236719686</v>
+        <v>0.9071490592984109</v>
       </c>
     </row>
     <row r="37">
@@ -1636,7 +1636,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.564123395554666</v>
+        <v>-0.5641233955546658</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>3.510097898913376</v>
@@ -1709,7 +1709,7 @@
         <v>0.1674811137240438</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.3694622466379755</v>
+        <v>0.3694622466379753</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.1033837693383569</v>
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.1931872076583348</v>
+        <v>-0.2215907250437842</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.9541797864472854</v>
+        <v>-0.9513920072719774</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.2001101624865876</v>
+        <v>0.1283250793177431</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.155986085050029</v>
+        <v>-1.225726515442434</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7097572035968145</v>
+        <v>-0.7119998249931054</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.5441301031965384</v>
+        <v>-0.5396273075758037</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4166134299039588</v>
+        <v>-0.454602901597444</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.5632744499125165</v>
+        <v>-0.5725785799838954</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.118188909951117</v>
+        <v>0.1213610656725253</v>
       </c>
     </row>
     <row r="42">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.850763135656162</v>
+        <v>1.706737558082587</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.187794313141846</v>
+        <v>3.210535713451305</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.3705384166187638</v>
+        <v>0.4289773723310271</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.396512848393345</v>
+        <v>1.518615209377587</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.298431996513758</v>
+        <v>1.298328641595057</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7968924040857863</v>
+        <v>0.7514631249510376</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.5937596539270974</v>
+        <v>0.6280151534502337</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.721286498531887</v>
+        <v>1.677631257051835</v>
       </c>
     </row>
     <row r="43">
@@ -1814,7 +1814,7 @@
         <v>0.2971514727304795</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6555142145022947</v>
+        <v>0.6555142145022945</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2643830159873689</v>
@@ -1839,16 +1839,14 @@
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="n">
-        <v>-0.6312633794389551</v>
+        <v>-0.6320694056588904</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.7503153096059983</v>
-      </c>
-      <c r="J44" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8124480013855206</v>
+      </c>
+      <c r="J44" s="6" t="inlineStr"/>
       <c r="K44" s="6" t="n">
-        <v>-0.09770605368205205</v>
+        <v>-0.1274112078785223</v>
       </c>
     </row>
     <row r="45">
@@ -1863,15 +1861,15 @@
       <c r="E45" s="6" t="inlineStr"/>
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
-      <c r="H45" s="6" t="inlineStr"/>
+      <c r="H45" s="6" t="n">
+        <v>8.206302310064622</v>
+      </c>
       <c r="I45" s="6" t="n">
-        <v>5.264289011211961</v>
-      </c>
-      <c r="J45" s="6" t="n">
-        <v>5.346818629290341</v>
-      </c>
+        <v>5.57987626942594</v>
+      </c>
+      <c r="J45" s="6" t="inlineStr"/>
       <c r="K45" s="6" t="n">
-        <v>12.24418812932977</v>
+        <v>13.79708181102489</v>
       </c>
     </row>
     <row r="46">
@@ -1901,7 +1899,7 @@
         <v>-0.9336912646618354</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.2806332135429881</v>
+        <v>-0.2806332135429883</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.2930890482968003</v>
@@ -1910,7 +1908,7 @@
         <v>-0.8225802580498112</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.1245966304724452</v>
+        <v>-0.1245966304724453</v>
       </c>
     </row>
     <row r="47">
@@ -1921,31 +1919,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.059745961873056</v>
+        <v>-1.074385886958816</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.595441915285689</v>
+        <v>-1.747485345017079</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.8422850808258797</v>
+        <v>-0.9077918134109155</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.656892951821098</v>
+        <v>-1.681978801318375</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.237701155071243</v>
+        <v>-2.179142105474464</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.409213417285617</v>
+        <v>-1.512136483582489</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.156507623866015</v>
+        <v>-1.025837410580403</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.731280392783864</v>
+        <v>-1.528092916603641</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.9531312027364082</v>
+        <v>-0.9061044811667087</v>
       </c>
     </row>
     <row r="48">
@@ -1956,31 +1954,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7972314168907442</v>
+        <v>0.8101757810811332</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.1737733419951333</v>
+        <v>-0.1724805535165363</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.9799870662820546</v>
+        <v>0.9807703466264605</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.2446003419894295</v>
+        <v>0.2910402296465699</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.3504950341744798</v>
+        <v>-0.3115172792685517</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.5268040230631754</v>
+        <v>0.5298149665929869</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.3012584334586524</v>
+        <v>0.3289335490473213</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.4058173492153657</v>
+        <v>-0.3966829770567086</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.4461403637680711</v>
+        <v>0.4810323898682302</v>
       </c>
     </row>
     <row r="49">
@@ -2006,7 +2004,7 @@
         <v>-1</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3005631777487262</v>
+        <v>-0.3005631777487263</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3563045009026369</v>
@@ -2015,7 +2013,7 @@
         <v>-1</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.1514704847984575</v>
+        <v>-0.1514704847984577</v>
       </c>
     </row>
     <row r="50">
@@ -2026,25 +2024,25 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8689610840619301</v>
       </c>
       <c r="D50" s="6" t="inlineStr"/>
       <c r="E50" s="6" t="n">
-        <v>-0.7517597552629265</v>
+        <v>-0.7880093520611</v>
       </c>
       <c r="F50" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="n">
-        <v>-0.8373843445075118</v>
+        <v>-0.8536033372755036</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.829823739173943</v>
+        <v>-0.810810186414252</v>
       </c>
       <c r="J50" s="6" t="inlineStr"/>
       <c r="K50" s="6" t="n">
-        <v>-0.711576936498166</v>
+        <v>-0.6743081712766034</v>
       </c>
     </row>
     <row r="51">
@@ -2055,25 +2053,25 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.856998689797288</v>
+        <v>4.083328580057938</v>
       </c>
       <c r="D51" s="6" t="inlineStr"/>
       <c r="E51" s="6" t="n">
-        <v>5.938336600811055</v>
+        <v>5.437082064522003</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.341340205928932</v>
+        <v>2.148274153798694</v>
       </c>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="n">
-        <v>1.66047974513779</v>
+        <v>1.762283439067959</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.8358914089439435</v>
+        <v>0.8604977837104418</v>
       </c>
       <c r="J51" s="6" t="inlineStr"/>
       <c r="K51" s="6" t="n">
-        <v>1.10336231399618</v>
+        <v>1.092064349234522</v>
       </c>
     </row>
     <row r="52">
@@ -2112,7 +2110,7 @@
         <v>-0.2644183245989359</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.03900068207914019</v>
+        <v>0.03900068207914027</v>
       </c>
     </row>
     <row r="53">
@@ -2123,31 +2121,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.08343592101599628</v>
+        <v>-0.08019760626395356</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.4927415410211559</v>
+        <v>-0.4969809529834959</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.143403978332211</v>
+        <v>-0.1266275401074334</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.3469020581619781</v>
+        <v>-0.3063599266187105</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.6726262857558075</v>
+        <v>-0.6845321373723732</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.4756915293236425</v>
+        <v>-0.4493904047029311</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.1423315033681391</v>
+        <v>-0.1429812540850768</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.4942979254268134</v>
+        <v>-0.4911907255624646</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.1983174315590364</v>
+        <v>-0.2347789061099002</v>
       </c>
     </row>
     <row r="54">
@@ -2158,31 +2156,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.6747078694499402</v>
+        <v>0.7499607937223819</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.04761440455035026</v>
+        <v>0.07314716902340807</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.6087945158488692</v>
+        <v>0.588797181275086</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.4489081673900964</v>
+        <v>0.4928908303676646</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.00387460830746036</v>
+        <v>-0.02796050952988091</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.2373059116726623</v>
+        <v>0.2462239726589194</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.432799692945291</v>
+        <v>0.4267855428284973</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.06201621182785765</v>
+        <v>-0.0625288408030665</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.3068687381038012</v>
+        <v>0.288170832631189</v>
       </c>
     </row>
     <row r="55">
@@ -2217,7 +2215,7 @@
         <v>-0.5927684839199049</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.08743106296796785</v>
+        <v>0.08743106296796804</v>
       </c>
     </row>
     <row r="56">
@@ -2228,31 +2226,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2893823098423451</v>
+        <v>-0.2432897139428386</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.8865805301017365</v>
+        <v>-0.9256577587186315</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3625976108768867</v>
+        <v>-0.336278926143717</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.4556343208898327</v>
+        <v>-0.45345639970356</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.8866267224849027</v>
+        <v>-0.8978226172042334</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.6017479073069435</v>
+        <v>-0.5727738848830384</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.266855264715868</v>
+        <v>-0.2641977588705644</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.8357270931066075</v>
+        <v>-0.8391236630127883</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3783605563735641</v>
+        <v>-0.4011898018456539</v>
       </c>
     </row>
     <row r="57">
@@ -2263,31 +2261,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>3.346920358458853</v>
+        <v>3.689046815297753</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5352597129988697</v>
+        <v>0.4807126132330873</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>2.984525551034757</v>
+        <v>3.188322129919086</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>1.441177982416564</v>
+        <v>1.557700095669017</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1347764851416482</v>
+        <v>0.1285280787066059</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.7538657691451374</v>
+        <v>0.7624337172513496</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.254076753650419</v>
+        <v>1.347340940801841</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1283190978228514</v>
+        <v>-0.1284182898492494</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.000320648768763</v>
+        <v>0.9158431325593914</v>
       </c>
     </row>
     <row r="58">
